--- a/biology/Botanique/Luna_(pomme)/Luna_(pomme).xlsx
+++ b/biology/Botanique/Luna_(pomme)/Luna_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luna est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Tchéquie.
-Obtenue en 1993 par Jaroslav Tupy, Institut de botanique expérimentale, Prague[1].
+Obtenue en 1993 par Jaroslav Tupy, Institut de botanique expérimentale, Prague.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Calibre : moyen à gros[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Calibre : moyen à gros,.
 Pelure : jaune clair.</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Croisement naturel: Topaz x Golden Delicious
 </t>
@@ -605,9 +623,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Variété diploïde [4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Variété diploïde 
 Groupe de floraison: C</t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Résistance génétique aux races communes de tavelure (Vf)
 </t>
@@ -667,7 +689,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La résistance de ce cultivar aux races communes de tavelure le prédispose à une culture avec peu ou pas de fongicides, comme dans les petits jardins familiaux.
 Conservation : au fruitier, jusque fin mars
